--- a/filtros/objeto.xlsx
+++ b/filtros/objeto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CAS-TI\ANALISE DE RISCO\Filtros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\acba\workspace\classificadortic_2025\streamlit_git\filtros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D106C-DB91-46F8-B483-E3E403BF4908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB06F90-CE5E-4ABB-B865-1349C377C345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionário" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t>Telecom</t>
   </si>
@@ -33,9 +44,6 @@
     <t>Firewall</t>
   </si>
   <si>
-    <t>Computador</t>
-  </si>
-  <si>
     <t>Software</t>
   </si>
   <si>
@@ -63,24 +71,12 @@
     <t>Internet</t>
   </si>
   <si>
-    <t>Tecnologia da Informação</t>
-  </si>
-  <si>
-    <t>Data center</t>
-  </si>
-  <si>
-    <t>Rack</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
     <t>Switch</t>
   </si>
   <si>
-    <t>Datacenter</t>
-  </si>
-  <si>
     <t>Unity</t>
   </si>
   <si>
@@ -96,18 +92,12 @@
     <t>Microsoft</t>
   </si>
   <si>
-    <t>Sistema de Geo</t>
-  </si>
-  <si>
     <t>Rede de armaz</t>
   </si>
   <si>
     <t>Sistema legado</t>
   </si>
   <si>
-    <t>Tablet</t>
-  </si>
-  <si>
     <t>Dispositivos móveis</t>
   </si>
   <si>
@@ -144,27 +134,15 @@
     <t>x</t>
   </si>
   <si>
-    <t>Racks</t>
-  </si>
-  <si>
     <t>Windows</t>
   </si>
   <si>
     <t>Linux</t>
   </si>
   <si>
-    <t>Tablets</t>
-  </si>
-  <si>
     <t>termo</t>
   </si>
   <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>Nuvem</t>
   </si>
   <si>
@@ -174,54 +152,18 @@
     <t>Virtua</t>
   </si>
   <si>
-    <t>TIC</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Nobreak</t>
-  </si>
-  <si>
-    <t>No break</t>
-  </si>
-  <si>
-    <t>vm ware</t>
-  </si>
-  <si>
-    <t>vmware</t>
-  </si>
-  <si>
-    <t>onsite</t>
-  </si>
-  <si>
-    <t>on site</t>
-  </si>
-  <si>
-    <t>scanner</t>
-  </si>
-  <si>
-    <t>scaner</t>
-  </si>
-  <si>
     <t>OUTSOURCING </t>
   </si>
   <si>
     <t>Sistema.*gestão</t>
   </si>
   <si>
-    <t>Sistema.*Geo</t>
-  </si>
-  <si>
     <t>Telefon</t>
   </si>
   <si>
-    <t>wi fi</t>
-  </si>
-  <si>
-    <t>wifi</t>
-  </si>
-  <si>
     <t>cpu</t>
   </si>
   <si>
@@ -243,9 +185,6 @@
     <t>sql</t>
   </si>
   <si>
-    <t>Computadores</t>
-  </si>
-  <si>
     <t>Sistema.*monitor</t>
   </si>
   <si>
@@ -262,6 +201,141 @@
   </si>
   <si>
     <t>sala.*cofre</t>
+  </si>
+  <si>
+    <t>wi.{0,1}fi</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>licenciamento.{0,10}perpetuo</t>
+  </si>
+  <si>
+    <t>licenca.{0,10}perpetua</t>
+  </si>
+  <si>
+    <t>certificado.{0,10}digita\S{1,2}</t>
+  </si>
+  <si>
+    <t>nvme</t>
+  </si>
+  <si>
+    <t>usb</t>
+  </si>
+  <si>
+    <t>LTO\S{0,2}</t>
+  </si>
+  <si>
+    <t>microcomputador</t>
+  </si>
+  <si>
+    <t>servidor</t>
+  </si>
+  <si>
+    <t>disco.{0,10}rigido</t>
+  </si>
+  <si>
+    <t>red hat</t>
+  </si>
+  <si>
+    <t>No.{0,1}break</t>
+  </si>
+  <si>
+    <t>on.{0,1}site</t>
+  </si>
+  <si>
+    <t>Data.{0,1}center</t>
+  </si>
+  <si>
+    <t>Computador(?:es)?</t>
+  </si>
+  <si>
+    <t>\S{0,2}mail</t>
+  </si>
+  <si>
+    <t>Rack(?:s)?</t>
+  </si>
+  <si>
+    <t>scan(?:n)?er</t>
+  </si>
+  <si>
+    <t>Sistema.{0,10}Geo</t>
+  </si>
+  <si>
+    <t>Tablet(?:s)?</t>
+  </si>
+  <si>
+    <t>vm.{0,1}ware</t>
+  </si>
+  <si>
+    <t>Tecnologia.{0,5}Informação</t>
+  </si>
+  <si>
+    <t>licenciamento.{0,10}solução</t>
+  </si>
+  <si>
+    <t>T[\.\s]?I(?:[\.\s]?C)?</t>
+  </si>
+  <si>
+    <t>infraestrutura.{0,10}rede</t>
+  </si>
+  <si>
+    <t>camera.{0,10}ip</t>
+  </si>
+  <si>
+    <t>ethernet</t>
+  </si>
+  <si>
+    <t>apm</t>
+  </si>
+  <si>
+    <t>reprograf</t>
+  </si>
+  <si>
+    <t>adobe</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>wireless</t>
+  </si>
+  <si>
+    <t>videoconferencia</t>
+  </si>
+  <si>
+    <t>lgpd</t>
+  </si>
+  <si>
+    <t>dados pessoais</t>
+  </si>
+  <si>
+    <t>hd(?:s)?</t>
+  </si>
+  <si>
+    <t>desktop</t>
+  </si>
+  <si>
+    <t>fortigate</t>
+  </si>
+  <si>
+    <t>solucao tecnologica</t>
+  </si>
+  <si>
+    <t>cabeamento estruturado</t>
+  </si>
+  <si>
+    <t>sap</t>
+  </si>
+  <si>
+    <t>ddos</t>
+  </si>
+  <si>
+    <t>neo4j</t>
+  </si>
+  <si>
+    <t>google</t>
   </si>
 </sst>
 </file>
@@ -604,11 +678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,331 +692,328 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>51</v>
+      <c r="A30" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>59</v>
+      <c r="A35" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
@@ -950,110 +1021,230 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/filtros/objeto.xlsx
+++ b/filtros/objeto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\acba\workspace\classificadortic_2025\streamlit_git\filtros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CAD-TI\SERVIDORES\Augusto\workspace\classificador_tic\filtros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB06F90-CE5E-4ABB-B865-1349C377C345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EE645D-306B-4EBD-8196-AECB973C754F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionário" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
   <si>
     <t>Telecom</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Dispositivos móveis</t>
   </si>
   <si>
-    <t>Licença de uso</t>
-  </si>
-  <si>
     <t>CHROMEBOOK</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>fortigate</t>
   </si>
   <si>
-    <t>solucao tecnologica</t>
-  </si>
-  <si>
     <t>cabeamento estruturado</t>
   </si>
   <si>
@@ -336,6 +330,33 @@
   </si>
   <si>
     <t>google</t>
+  </si>
+  <si>
+    <t>Licença.{0, 8}uso</t>
+  </si>
+  <si>
+    <t>impressao</t>
+  </si>
+  <si>
+    <t>soluc\S{2,3} tecnologica.{0,1}</t>
+  </si>
+  <si>
+    <t>call center</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>rede lógica</t>
+  </si>
+  <si>
+    <t>parque tecnológico</t>
+  </si>
+  <si>
+    <t>cisco</t>
+  </si>
+  <si>
+    <t>tot(?:em|en)s?</t>
   </si>
 </sst>
 </file>
@@ -678,11 +699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +713,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,46 +726,46 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +780,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,17 +795,17 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +815,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,15 +825,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +843,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,56 +853,56 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,7 +912,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,17 +925,17 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,12 +955,12 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +970,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,23 +980,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,15 +1011,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,15 +1029,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,227 +1045,271 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/filtros/objeto.xlsx
+++ b/filtros/objeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CAD-TI\SERVIDORES\Augusto\workspace\classificador_tic\filtros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EE645D-306B-4EBD-8196-AECB973C754F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36AF621-C9BC-4075-A699-443D5C9DC1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionário" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>Telecom</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>tot(?:em|en)s?</t>
+  </si>
+  <si>
+    <t>arduino</t>
   </si>
 </sst>
 </file>
@@ -699,11 +702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L108" sqref="L108"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,6 +1315,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/filtros/objeto.xlsx
+++ b/filtros/objeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CAD-TI\SERVIDORES\Augusto\workspace\classificador_tic\filtros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36AF621-C9BC-4075-A699-443D5C9DC1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53029D08-A848-4521-B915-D3C6875B2EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionário" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <t>Telecom</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>arduino</t>
+  </si>
+  <si>
+    <t>qlik</t>
+  </si>
+  <si>
+    <t>desenvolvimento.{0,6}aplicac</t>
+  </si>
+  <si>
+    <t>ponto de funcao</t>
   </si>
 </sst>
 </file>
@@ -702,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,6 +1329,21 @@
         <v>107</v>
       </c>
     </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/filtros/objeto.xlsx
+++ b/filtros/objeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CAD-TI\SERVIDORES\Augusto\workspace\classificador_tic\filtros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53029D08-A848-4521-B915-D3C6875B2EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C3257-1E07-4D09-80BE-7DC0D7818334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
   <si>
     <t>Telecom</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>ponto de funcao</t>
+  </si>
+  <si>
+    <t>sistema</t>
+  </si>
+  <si>
+    <t>anti.{0,1}virus</t>
   </si>
 </sst>
 </file>
@@ -711,11 +717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,6 +1350,16 @@
         <v>110</v>
       </c>
     </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/filtros/objeto.xlsx
+++ b/filtros/objeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CAD-TI\SERVIDORES\Augusto\workspace\classificador_tic\filtros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13C3257-1E07-4D09-80BE-7DC0D7818334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99AF383-D7DD-4581-B5C4-8C504E7062F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26295" yWindow="1665" windowWidth="25500" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionário" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
   <si>
     <t>Telecom</t>
   </si>
@@ -212,9 +212,6 @@
     <t>licenca.{0,10}perpetua</t>
   </si>
   <si>
-    <t>certificado.{0,10}digita\S{1,2}</t>
-  </si>
-  <si>
     <t>nvme</t>
   </si>
   <si>
@@ -375,6 +372,18 @@
   </si>
   <si>
     <t>anti.{0,1}virus</t>
+  </si>
+  <si>
+    <t>ssl</t>
+  </si>
+  <si>
+    <t>certifica.{0,10}digita\S{1,2}</t>
+  </si>
+  <si>
+    <t>plataforma digital</t>
+  </si>
+  <si>
+    <t>token</t>
   </si>
 </sst>
 </file>
@@ -717,11 +726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A111" sqref="A111"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +771,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -778,7 +787,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +807,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +842,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +880,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +895,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -917,7 +926,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -953,7 +962,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +982,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1038,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
         <v>30</v>
@@ -1037,7 +1046,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1061,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -1081,7 +1090,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1120,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,12 +1130,12 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
         <v>30</v>
@@ -1134,7 +1143,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
         <v>30</v>
@@ -1142,7 +1151,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
         <v>30</v>
@@ -1150,42 +1159,42 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
@@ -1193,17 +1202,17 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
@@ -1211,17 +1220,17 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
@@ -1229,12 +1238,12 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
         <v>30</v>
@@ -1242,27 +1251,27 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>30</v>
@@ -1270,7 +1279,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
@@ -1278,22 +1287,22 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
         <v>30</v>
@@ -1301,12 +1310,12 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>30</v>
@@ -1314,17 +1323,17 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
         <v>30</v>
@@ -1332,32 +1341,50 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
